--- a/pasteFile.xlsx
+++ b/pasteFile.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>sn</t>
+  </si>
+  <si>
+    <t>Loc</t>
   </si>
   <si>
     <t>Tag no</t>
@@ -363,18 +366,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F2"/>
+  <dimension ref="A2:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="B3:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -392,9 +397,13 @@
       </c>
       <c r="F2" t="s">
         <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/pasteFile.xlsx
+++ b/pasteFile.xlsx
@@ -1,58 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>sn</t>
-  </si>
-  <si>
-    <t>Loc</t>
-  </si>
-  <si>
-    <t>Tag no</t>
-  </si>
-  <si>
-    <t>Problem found</t>
-  </si>
-  <si>
-    <t>Action Taken</t>
-  </si>
-  <si>
-    <t>complain</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -71,13 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -365,41 +407,1397 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="B3:G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col width="15.85546875" customWidth="1" min="4" max="4"/>
+    <col width="37.85546875" customWidth="1" min="5" max="5"/>
+    <col width="12.42578125" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
+    <row r="1"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sn</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Loc</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Tag no</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Problem found</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Action Taken</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>complain</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2B/13</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>13-LT-031</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>wrong reading</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Replace defective cell then complete calibration was done found ok</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11/01/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2B/13</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>13-LT-032</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Function check was done found ok</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11/01/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2B/13</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>13-PT-081</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Complete calibration was done</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>11/01/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2A/05</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>05-PT-019</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Replace the defective manifold and impulse tube then function check was done found ok </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>11/01/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2A/05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>05-PI-243</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Stopped as there is no spare parts</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>11/01/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2B/14</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14-PDT-057</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Wrong reading</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Clear blockage and complete function check was done found ok</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>11/01/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2A/05</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>05-LT-003</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Repair the defective connection for communication block card then complete function check was done found ok</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>11/01/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>A4/52</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>52-PT-22B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Leakage</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tighten on nuts then function check was done found no leakage </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>11/01/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2A/12</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>12-FT-021</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PMR check was carried out </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>11/01/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2A/12</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>12-FT-022</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PMR check was carried out </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>11/01/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2A/12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12-FT-050</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PMR check was carried out </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>11/01/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2A/12</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>12-PV-032</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PMR check was carried out </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>11/01/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2A/12</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12-FT-025</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Stopped by STL</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>11/01/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2A/12</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>12-PV-010</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Stopped by STL</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>11/01/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2A/12</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>12-PV-025</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Stopped by STL</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>11/01/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2A/02</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>02-LT-009</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>PMR was carried out. Install new cable gland and shroud</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>10/12/2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2A/02</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>02-LT-010</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PMR was carried out.could not check span as the upper main isolation valve is passing </t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>10/12/2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2A/02</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>02-PT-004</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>stopped as the main isolation valve is passing and there is no manifold .ask EPROM shift engineer to transfer the job to static dept.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>10/12/2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2A/12</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>12-FV-050</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>PMR was carried out, need shroud .</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>10/12/2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2A/02</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>02-FT-005A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>flushing, complet function check was done found ok</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>10/12/2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2B/13</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>UNIT 13</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SURVEY</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Visual unit survey was carried out , the survey report was sent to EPROM shift eng.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>10/12/2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>A4/51</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>51-FT-011</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Hunting</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">flushing both tap points to clear blockage , refill seal pot and impulse tube with gylcrerin , zero check was done found ok </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>10/12/2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>A4/51</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>51-FT-023</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Hunting</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Reset, flushing, zero and span calibration was done then function check was done found ok</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>10/12/2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>A4/54</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>54-FI-205</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">stopped as the main isolation valve is passing </t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>10/12/2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>A4/54</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>54-FI-206</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">stopped as the main isolation valve is passing </t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>10/12/2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2A/02</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>02-PT-065</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Hunting</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>zero check found it shifted calibrate it, check span found ok , the function check found ok</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>10/12/2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2A/04</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>04-FT-015B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wrong reading</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Drain , flushing zero check found it shifted calibrate it, check span found ok , the function check found ok</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>10/12/2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2B/13</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>13-FT-011</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>No problem</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>zero and span check found no problem</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>10/12/2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2B/13</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>13-LV-019</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Leakage</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Tighten on valve packing to stop leakage; Check valve stroke found ok.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>17/9/2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2B/07</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>07-PDT-006</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>wrong reading</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Zero and span calibration were done, replace the old manifold by new one with new (1/2 NPT * 12mm) fitting then check reading found ok.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>17/9/2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2A/04</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>04-K-02(MP06A)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Assist EPROM shift Eng. To check the pump Start/Stop relay.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>17/9/2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2A/04</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>04-K-02A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Survey</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Survey was done for tag no. found the following:
+missing:TE-653A,C&amp;TE-115A,B.C&amp;TE-30A,B,C&amp;TSH-614B,650E&amp;LSL-603A,B&amp;TE-114B,28B.
+Clean:XYV-623,627,622,625,626,620,628 &amp; PSL-632,634,645 &amp; PSLL-635,633,631 &amp; TE-28A,113,655,626,635,652E,F,G,H,A,B,C,D &amp;TE-650F,E,D,B,C.
+Replace: TSH-614A,653B &amp; PSL-630 &amp; PSLL-616,615.
+Modify: TSH-614C,B &amp; 652L,J,I,K.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>17/9/2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>A4/51</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>51-LIT-071</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>PMR was carried out.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>17/9/2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>A4/52</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>UNIT 52</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Surevey</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Survey has been done &amp; report sent by E-mail.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>17/9/2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>A4/56</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>UNIT 56</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Surevey</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Survey has been done &amp; report sent by E-mail.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>17/9/2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2A/12</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>12-LG-212</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Leakaging</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>leakage test was done found it leakes from its glsses; Dismantle it and transfer to EMC W/S, install end blind instead of it; Waitting for spares</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>17/9/2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2B/13</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>13-LG-211</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Leakaging</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>leakage test was done found it leakes from 2 Nipple nuts, Dismantle it and transfer to EMC W/S, install end blind instead of it.
+Install 2 new gaskets for the nipples then check leakage again found it ok and ready to be installed.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>17/9/2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2A/05</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>05-PSV-019</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Check found 3 pin holes at the  U connection of the PSV, try to stop leakage using scoach tape but it failed as the pressure was very high (14 bar).</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>17/9/2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2B/13</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>13-FT-091</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Wrong reading</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Reset, Zero / Span calibration were done, Remove the defective display, flush from manifold was done then check reading found ok.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>20/04/2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2B/07</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>07-PT-021</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Wrong reading</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zero / Span calibration were done several times till the transmitter accept then check reading found ok.
+Note: install new U-bolt for the mounting bracket and needs 2 cover o-rings.
+It is recommended to replace the transmitter and its mounting bracket by new ones, replace the whole impulse tube with its 2 fittings (1/2" NPT * 12mm Tube)
+</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>20/04/2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2B/13</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>13-TE-065,066</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Wrong reading</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Check elements and loop were done found ok. Swap the elements found the reading as before.
+Note: there is a problem in TE-066 thermowell and needs to be checked ,waiting S/D.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>20/04/2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2B/13</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>13-XV-030</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Clear valve stuck by force open /close ,check regulator found continuously vent, increase the regulator o/p then check valve open / close found ok, and replace the air regulator with an old one then check valve stroke found ok</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>20/04/2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2B/15</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>15-LT-004</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Install new HF module</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>dismantle the Tx and Install a new HF module, Factory calibration as done at EMC w/s, install again and custom mapping were done then check reading found ok.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>20/04/2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2B/13</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>13-XV-029</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>check found the valve is stuck at open, dismantle the actuator and check found it ok, check the valve body found it moving hardly, needs to be dismantled to carry out maintenance but operation department refused so its waiting for shutdown.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>20/04/2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2B/07</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>07-FT-019</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Wrong reading</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Zero check, Span calibration, flush tube were done then check reading found ok.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>20/04/2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2B/13</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>13-PT-054</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Blockage</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Reset power and clear blockage were done then check reading found ok.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>20/04/2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2B/13</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>13-FT-091</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Wrong reading</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Replace the electronic Module with an old one then check reading found ok.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>20/04/2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>A4/51</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>51-FT-030</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Wrong reading</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>dismantle the turbine and clean it with steam, jhkgg vddfveaverg  egg sefgs f s f df vsf vgrbb g rdg d g dfgbdgfb bdfbdf gbdb f  d bfgbdf sfbdgb .h nd gdgnd   . Df gd bdf bg dn hthnfhndghnnf  ng nn nfg fn .</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>20/04/2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>A4/51</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>51-LT-071</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>PMR WAS DONE</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>06/03/2019</t>
+        </is>
       </c>
     </row>
   </sheetData>
